--- a/app/forms/person/person.xlsx
+++ b/app/forms/person/person.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E732DBF0-F30E-42F5-98C9-2D4C8EEA4838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\person\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF88103-F786-4410-A314-C42FAB7FD759}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="model" sheetId="3" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
   <si>
     <t>clause</t>
   </si>
@@ -437,12 +442,72 @@
   <si>
     <t>Garri, rice or grain drying spot</t>
   </si>
+  <si>
+    <t>extra_question1</t>
+  </si>
+  <si>
+    <t>extra_question2</t>
+  </si>
+  <si>
+    <t>extra_question3</t>
+  </si>
+  <si>
+    <t>extra_question4</t>
+  </si>
+  <si>
+    <t>extra_question5</t>
+  </si>
+  <si>
+    <t>extra_question6</t>
+  </si>
+  <si>
+    <t>extra_question7</t>
+  </si>
+  <si>
+    <t>extra_question8</t>
+  </si>
+  <si>
+    <t>extra_question9</t>
+  </si>
+  <si>
+    <t>extra_question10</t>
+  </si>
+  <si>
+    <t>extra_question11</t>
+  </si>
+  <si>
+    <t>extra_question12</t>
+  </si>
+  <si>
+    <t>extra_question13</t>
+  </si>
+  <si>
+    <t>extra_question14</t>
+  </si>
+  <si>
+    <t>extra_question15</t>
+  </si>
+  <si>
+    <t>extra_question16</t>
+  </si>
+  <si>
+    <t>extra_question17</t>
+  </si>
+  <si>
+    <t>extra_question18</t>
+  </si>
+  <si>
+    <t>extra_question19</t>
+  </si>
+  <si>
+    <t>extra_question20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -899,41 +964,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="79.28515625" customWidth="1"/>
-    <col min="9" max="9" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="79.33203125" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" customWidth="1"/>
+    <col min="21" max="21" width="7.88671875" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" customWidth="1"/>
     <col min="23" max="23" width="46" customWidth="1"/>
-    <col min="24" max="1024" width="8.7109375" customWidth="1"/>
+    <col min="24" max="1024" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,10 +1073,10 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>22</v>
       </c>
@@ -1028,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1055,12 +1120,12 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="2" customFormat="1">
+    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1074,7 +1139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>28</v>
       </c>
@@ -1088,7 +1153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>28</v>
       </c>
@@ -1102,17 +1167,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="10.5" customHeight="1">
+    <row r="14" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>37</v>
       </c>
@@ -1132,10 +1197,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="10.5" customHeight="1">
+    <row r="15" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:32" ht="409.6">
+    <row r="16" spans="1:32" ht="409.6" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>42</v>
       </c>
@@ -1143,17 +1208,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>44</v>
       </c>
@@ -1170,7 +1235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>47</v>
       </c>
@@ -1184,7 +1249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>51</v>
       </c>
@@ -1201,7 +1266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="17.649999999999999" customHeight="1">
+    <row r="24" spans="1:23" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>54</v>
       </c>
@@ -1218,7 +1283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="17.649999999999999" customHeight="1">
+    <row r="25" spans="1:23" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="17.649999999999999" customHeight="1">
+    <row r="26" spans="1:23" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>58</v>
       </c>
@@ -1237,23 +1302,196 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17.649999999999999" customHeight="1">
+    <row r="27" spans="1:23" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:23" ht="12.75" customHeight="1">
+    <row r="28" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="12.75" customHeight="1">
+    <row r="31" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1272,14 +1510,14 @@
       <selection activeCell="B10" activeCellId="1" sqref="A32:XFD32 B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>62</v>
       </c>
@@ -1290,7 +1528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>65</v>
       </c>
@@ -1298,7 +1536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>67</v>
       </c>
@@ -1306,7 +1544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
@@ -1314,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
@@ -1340,13 +1578,13 @@
       <selection activeCell="G72" activeCellId="1" sqref="A32:XFD32 G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="2" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1365,7 +1603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1391,12 +1629,12 @@
       <selection activeCell="C35" activeCellId="1" sqref="A32:XFD32 C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>75</v>
       </c>
@@ -1407,7 +1645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1418,7 +1656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1429,7 +1667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -1440,7 +1678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1462,7 +1700,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1473,7 +1711,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1484,7 +1722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -1495,7 +1733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -1506,7 +1744,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1517,7 +1755,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -1528,7 +1766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -1539,7 +1777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -1550,7 +1788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -1561,7 +1799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1572,7 +1810,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>

--- a/app/forms/person/person.xlsx
+++ b/app/forms/person/person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\person\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF88103-F786-4410-A314-C42FAB7FD759}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B2EED-3232-4746-9689-99D4B2204EF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -165,113 +165,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>2004 – 15
-2003 - 16
-2002 - 17
-2001 - 18
-2000 - 19
-1999 - 20
-1998 - 21
-1997 - 22
-1996 - 23
-1995 - 24
-1994 - 25
-1993 - 26
-1992 – 27
-1991 - 28
-1990 - 29
-1989 - 30
-1988 - 31
-1987 - 32
-1986 - 33
-1985 - 34
-1984 - 35
-1983 - 36
-1982 - 37
-1981 - 38
-1980 - 39
-1979 - 40
-1978 - 41
-1977 - 42
-1976 - 43
-1975 - 44
-1974 - 45
-1973 - 46
-1972 - 47
-1971 - 48
-1970 - 49
-1969 - 50
-1968 - 51
-1967 - 52
-1966 - 53
-1965 - 54
-1964 - 55
-1963 - 56
-1962 - 57
-1961 - 58
-1960 - 59
-1959 - 60
-1958 - 61
-1957 - 62
-1956 - 63
-1955 - 64
-1954 - 65
-1953 - 66
-1952 - 67
-1951 - 68
-1950 - 69
-1949 - 70
-1948 - 71
-1947 - 72
-1946 - 73
-1945 - 74
-1944 - 75
-1943 - 76
-1942 - 77
-1941 - 78
-1940 - 79
-1939 - 80
-1938 - 81
-1937 - 82
-1936 - 83
-1935 - 84
-1934 - 85
-1933 - 86
-1932 - 87
-1931 - 88
-1930 - 89
-1929 - 90
-1928 - 91
-1927 - 92
-1926 - 93
-1925 - 94
-1924 - 95
-1923 - 96
-1922 - 97
-1921 - 98
-1920 - 99
-1919 - 100
-1918 - 101
-1917 - 102
-1916 - 103
-1915 - 104
-1914 - 105
-1913 - 106
-1912 - 107
-1911 - 108
-1910 - 109
-1909 - 110
-1908 - 111
-1907 - 112
-1906 - 113
-1905 - 114
-1904 - 115
-1903 - 116
-1902 - 117
-1901 - 118
-1900 - 119</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -501,13 +394,16 @@
   </si>
   <si>
     <t>extra_question20</t>
+  </si>
+  <si>
+    <t>2004 – 15&lt;br&gt;2003 - 16&lt;br&gt;2002 - 17&lt;br&gt;2001 - 18&lt;br&gt;2000 - 19&lt;br&gt;1999 - 20&lt;br&gt;1998 - 21&lt;br&gt;1997 - 22&lt;br&gt;1996 - 23&lt;br&gt;1995 - 24&lt;br&gt;1994 - 25&lt;br&gt;1993 - 26&lt;br&gt;1992 – 27&lt;br&gt;1991 - 28&lt;br&gt;1990 - 29&lt;br&gt;1989 - 30&lt;br&gt;1988 - 31&lt;br&gt;1987 - 32&lt;br&gt;1986 - 33&lt;br&gt;1985 - 34&lt;br&gt;1984 - 35&lt;br&gt;1983 - 36&lt;br&gt;1982 - 37&lt;br&gt;1981 - 38&lt;br&gt;1980 - 39&lt;br&gt;1979 - 40&lt;br&gt;1978 - 41&lt;br&gt;1977 - 42&lt;br&gt;1976 - 43&lt;br&gt;1975 - 44&lt;br&gt;1974 - 45&lt;br&gt;1973 - 46&lt;br&gt;1972 - 47&lt;br&gt;1971 - 48&lt;br&gt;1970 - 49&lt;br&gt;1969 - 50&lt;br&gt;1968 - 51&lt;br&gt;1967 - 52&lt;br&gt;1966 - 53&lt;br&gt;1965 - 54&lt;br&gt;1964 - 55&lt;br&gt;1963 - 56&lt;br&gt;1962 - 57&lt;br&gt;1961 - 58&lt;br&gt;1960 - 59&lt;br&gt;1959 - 60&lt;br&gt;1958 - 61&lt;br&gt;1957 - 62&lt;br&gt;1956 - 63&lt;br&gt;1955 - 64&lt;br&gt;1954 - 65&lt;br&gt;1953 - 66&lt;br&gt;1952 - 67&lt;br&gt;1951 - 68&lt;br&gt;1950 - 69&lt;br&gt;1949 - 70&lt;br&gt;1948 - 71&lt;br&gt;1947 - 72&lt;br&gt;1946 - 73&lt;br&gt;1945 - 74&lt;br&gt;1944 - 75&lt;br&gt;1943 - 76&lt;br&gt;1942 - 77&lt;br&gt;1941 - 78&lt;br&gt;1940 - 79&lt;br&gt;1939 - 80&lt;br&gt;1938 - 81&lt;br&gt;1937 - 82&lt;br&gt;1936 - 83&lt;br&gt;1935 - 84&lt;br&gt;1934 - 85&lt;br&gt;1933 - 86&lt;br&gt;1932 - 87&lt;br&gt;1931 - 88&lt;br&gt;1930 - 89&lt;br&gt;1929 - 90&lt;br&gt;1928 - 91&lt;br&gt;1927 - 92&lt;br&gt;1926 - 93&lt;br&gt;1925 - 94&lt;br&gt;1924 - 95&lt;br&gt;1923 - 96&lt;br&gt;1922 - 97&lt;br&gt;1921 - 98&lt;br&gt;1920 - 99&lt;br&gt;1919 - 100&lt;br&gt;1918 - 101&lt;br&gt;1917 - 102&lt;br&gt;1916 - 103&lt;br&gt;1915 - 104&lt;br&gt;1914 - 105&lt;br&gt;1913 - 106&lt;br&gt;1912 - 107&lt;br&gt;1911 - 108&lt;br&gt;1910 - 109&lt;br&gt;1909 - 110&lt;br&gt;1908 - 111&lt;br&gt;1907 - 112&lt;br&gt;1906 - 113&lt;br&gt;1905 - 114&lt;br&gt;1904 - 115&lt;br&gt;1903 - 116&lt;br&gt;1902 - 117&lt;br&gt;1901 - 118&lt;br&gt;1900 - 119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -532,6 +428,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -576,12 +478,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,38 +869,38 @@
   <dimension ref="A1:AF57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="79.33203125" customWidth="1"/>
-    <col min="9" max="9" width="57.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="79.28515625" customWidth="1"/>
+    <col min="9" max="9" width="57.140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" customWidth="1"/>
-    <col min="20" max="20" width="27.44140625" customWidth="1"/>
-    <col min="21" max="21" width="7.88671875" customWidth="1"/>
-    <col min="22" max="22" width="13.5546875" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
     <col min="23" max="23" width="46" customWidth="1"/>
-    <col min="24" max="1024" width="8.6640625" customWidth="1"/>
+    <col min="24" max="1024" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,10 +975,10 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>22</v>
       </c>
@@ -1093,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1120,12 +1022,12 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
@@ -1139,7 +1041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>28</v>
       </c>
@@ -1153,7 +1055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>28</v>
       </c>
@@ -1167,17 +1069,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
         <v>37</v>
       </c>
@@ -1197,129 +1099,129 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:32" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H16" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
         <v>44</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
         <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
       </c>
       <c r="U19" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
         <v>47</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="I21" t="s">
+      <c r="W21" t="s">
         <v>49</v>
       </c>
-      <c r="W21" t="s">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="L22" t="s">
         <v>52</v>
-      </c>
-      <c r="L22" t="s">
-        <v>53</v>
       </c>
       <c r="U22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
       </c>
       <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
         <v>54</v>
       </c>
-      <c r="H24" t="s">
+      <c r="L24" t="s">
         <v>55</v>
       </c>
-      <c r="L24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>58</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>59</v>
       </c>
-      <c r="H26" t="s">
+    </row>
+    <row r="27" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1327,174 +1229,174 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1510,54 +1412,54 @@
       <selection activeCell="B10" activeCellId="1" sqref="A32:XFD32 B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1578,13 +1480,13 @@
       <selection activeCell="G72" activeCellId="1" sqref="A32:XFD32 G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1592,23 +1494,23 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
       <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1629,196 +1531,196 @@
       <selection activeCell="C35" activeCellId="1" sqref="A32:XFD32 C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>85</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>89</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>99</v>
       </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/app/forms/person/person.xlsx
+++ b/app/forms/person/person.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\person\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B2EED-3232-4746-9689-99D4B2204EF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006A7580-D067-4C85-96F7-1D754B8ADACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="survey" sheetId="5" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
     <sheet name="model" sheetId="3" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="151">
   <si>
     <t>clause</t>
   </si>
@@ -108,9 +108,6 @@
     <t xml:space="preserve">select_one </t>
   </si>
   <si>
-    <t>1. I'd like to ask you questions in order to help us conduct research in hopes to improve healthcare for Lassa fever. Redeemer University, the University of Cambridge, and our partners may have access to this information, including your current location, and potentially voice recording. If you accept, you may withdraw your permission at any time and ask for your data to be erased. Choosing to not participate will in no way affect the care and treatment you will receive. Are happy to participate?</t>
-  </si>
-  <si>
     <t>if</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>surname</t>
   </si>
   <si>
-    <t>2. What is your surname?</t>
-  </si>
-  <si>
     <t>end screen</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>5. Age at last birthday (in years)</t>
-  </si>
-  <si>
     <t>data('age') &lt;= 150 &amp;&amp; data('age') &gt;= 0</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>6. Gender</t>
-  </si>
-  <si>
     <t>assign</t>
   </si>
   <si>
@@ -189,33 +177,9 @@
     <t>date</t>
   </si>
   <si>
-    <t>7. Registration date</t>
-  </si>
-  <si>
     <t>Today's date</t>
   </si>
   <si>
-    <t>photo_consent</t>
-  </si>
-  <si>
-    <t>46. May I take your photo?</t>
-  </si>
-  <si>
-    <t>It's not necessary.</t>
-  </si>
-  <si>
-    <t>data('photo_consent') == 'Yes'</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>47. [Take picture of full face]</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -267,18 +231,6 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>Ondo</t>
-  </si>
-  <si>
-    <t>Edo</t>
-  </si>
-  <si>
-    <t>Ebonyi</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -291,119 +243,257 @@
     <t>Male</t>
   </si>
   <si>
-    <t>GPS_ID</t>
-  </si>
-  <si>
-    <t>household</t>
-  </si>
-  <si>
-    <t>Household</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>nearest hospital</t>
-  </si>
-  <si>
-    <t>Nearest hospital</t>
-  </si>
-  <si>
-    <t>dumpsite</t>
-  </si>
-  <si>
-    <t>Dumpsite</t>
-  </si>
-  <si>
-    <t>traps</t>
-  </si>
-  <si>
-    <t>Traps</t>
-  </si>
-  <si>
-    <t>rice_or_other_farm</t>
-  </si>
-  <si>
-    <t>Rice or other farm</t>
-  </si>
-  <si>
-    <t>garri_rice_or_grain_drying_spot</t>
-  </si>
-  <si>
-    <t>Garri, rice or grain drying spot</t>
-  </si>
-  <si>
-    <t>extra_question1</t>
-  </si>
-  <si>
-    <t>extra_question2</t>
-  </si>
-  <si>
-    <t>extra_question3</t>
-  </si>
-  <si>
-    <t>extra_question4</t>
-  </si>
-  <si>
-    <t>extra_question5</t>
-  </si>
-  <si>
-    <t>extra_question6</t>
-  </si>
-  <si>
-    <t>extra_question7</t>
-  </si>
-  <si>
-    <t>extra_question8</t>
-  </si>
-  <si>
-    <t>extra_question9</t>
-  </si>
-  <si>
-    <t>extra_question10</t>
-  </si>
-  <si>
-    <t>extra_question11</t>
-  </si>
-  <si>
-    <t>extra_question12</t>
-  </si>
-  <si>
-    <t>extra_question13</t>
-  </si>
-  <si>
-    <t>extra_question14</t>
-  </si>
-  <si>
-    <t>extra_question15</t>
-  </si>
-  <si>
-    <t>extra_question16</t>
-  </si>
-  <si>
-    <t>extra_question17</t>
-  </si>
-  <si>
-    <t>extra_question18</t>
-  </si>
-  <si>
-    <t>extra_question19</t>
-  </si>
-  <si>
-    <t>extra_question20</t>
-  </si>
-  <si>
     <t>2004 – 15&lt;br&gt;2003 - 16&lt;br&gt;2002 - 17&lt;br&gt;2001 - 18&lt;br&gt;2000 - 19&lt;br&gt;1999 - 20&lt;br&gt;1998 - 21&lt;br&gt;1997 - 22&lt;br&gt;1996 - 23&lt;br&gt;1995 - 24&lt;br&gt;1994 - 25&lt;br&gt;1993 - 26&lt;br&gt;1992 – 27&lt;br&gt;1991 - 28&lt;br&gt;1990 - 29&lt;br&gt;1989 - 30&lt;br&gt;1988 - 31&lt;br&gt;1987 - 32&lt;br&gt;1986 - 33&lt;br&gt;1985 - 34&lt;br&gt;1984 - 35&lt;br&gt;1983 - 36&lt;br&gt;1982 - 37&lt;br&gt;1981 - 38&lt;br&gt;1980 - 39&lt;br&gt;1979 - 40&lt;br&gt;1978 - 41&lt;br&gt;1977 - 42&lt;br&gt;1976 - 43&lt;br&gt;1975 - 44&lt;br&gt;1974 - 45&lt;br&gt;1973 - 46&lt;br&gt;1972 - 47&lt;br&gt;1971 - 48&lt;br&gt;1970 - 49&lt;br&gt;1969 - 50&lt;br&gt;1968 - 51&lt;br&gt;1967 - 52&lt;br&gt;1966 - 53&lt;br&gt;1965 - 54&lt;br&gt;1964 - 55&lt;br&gt;1963 - 56&lt;br&gt;1962 - 57&lt;br&gt;1961 - 58&lt;br&gt;1960 - 59&lt;br&gt;1959 - 60&lt;br&gt;1958 - 61&lt;br&gt;1957 - 62&lt;br&gt;1956 - 63&lt;br&gt;1955 - 64&lt;br&gt;1954 - 65&lt;br&gt;1953 - 66&lt;br&gt;1952 - 67&lt;br&gt;1951 - 68&lt;br&gt;1950 - 69&lt;br&gt;1949 - 70&lt;br&gt;1948 - 71&lt;br&gt;1947 - 72&lt;br&gt;1946 - 73&lt;br&gt;1945 - 74&lt;br&gt;1944 - 75&lt;br&gt;1943 - 76&lt;br&gt;1942 - 77&lt;br&gt;1941 - 78&lt;br&gt;1940 - 79&lt;br&gt;1939 - 80&lt;br&gt;1938 - 81&lt;br&gt;1937 - 82&lt;br&gt;1936 - 83&lt;br&gt;1935 - 84&lt;br&gt;1934 - 85&lt;br&gt;1933 - 86&lt;br&gt;1932 - 87&lt;br&gt;1931 - 88&lt;br&gt;1930 - 89&lt;br&gt;1929 - 90&lt;br&gt;1928 - 91&lt;br&gt;1927 - 92&lt;br&gt;1926 - 93&lt;br&gt;1925 - 94&lt;br&gt;1924 - 95&lt;br&gt;1923 - 96&lt;br&gt;1922 - 97&lt;br&gt;1921 - 98&lt;br&gt;1920 - 99&lt;br&gt;1919 - 100&lt;br&gt;1918 - 101&lt;br&gt;1917 - 102&lt;br&gt;1916 - 103&lt;br&gt;1915 - 104&lt;br&gt;1914 - 105&lt;br&gt;1913 - 106&lt;br&gt;1912 - 107&lt;br&gt;1911 - 108&lt;br&gt;1910 - 109&lt;br&gt;1909 - 110&lt;br&gt;1908 - 111&lt;br&gt;1907 - 112&lt;br&gt;1906 - 113&lt;br&gt;1905 - 114&lt;br&gt;1904 - 115&lt;br&gt;1903 - 116&lt;br&gt;1902 - 117&lt;br&gt;1901 - 118&lt;br&gt;1900 - 119</t>
+  </si>
+  <si>
+    <t>interviewer_name</t>
+  </si>
+  <si>
+    <t>1. What is the name of the interviewer?</t>
+  </si>
+  <si>
+    <t>selected(data('interviewer_name'), 'Other')</t>
+  </si>
+  <si>
+    <t>interviewer_name_other</t>
+  </si>
+  <si>
+    <t>What is the name of the interviewer?</t>
+  </si>
+  <si>
+    <t>p_lassa</t>
+  </si>
+  <si>
+    <t>cohort</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>2. I'd like to ask you questions in order to help us conduct research in hopes to improve healthcare for Lassa fever. Redeemer University, the University of Cambridge, and our partners may have access to this information, including your current location. .  Note that you may withdraw your permission at any time and ask for your data to be erased. Choosing to not participate will in no way affect the care and treatment you will receive. Are you happy to participate?</t>
+  </si>
+  <si>
+    <t>adeke_azuka</t>
+  </si>
+  <si>
+    <t>Adeke Azuka</t>
+  </si>
+  <si>
+    <t>awe_abimbola</t>
+  </si>
+  <si>
+    <t>Awe Abimbola</t>
+  </si>
+  <si>
+    <t>benedict_azuogu</t>
+  </si>
+  <si>
+    <t>Benedict Azuogu</t>
+  </si>
+  <si>
+    <t>chuks_abejegah</t>
+  </si>
+  <si>
+    <t>Chuks Abejegah</t>
+  </si>
+  <si>
+    <t>dauda_saheed</t>
+  </si>
+  <si>
+    <t>Dauda Saheed</t>
+  </si>
+  <si>
+    <t>edith_abejegah</t>
+  </si>
+  <si>
+    <t>Edith Abejegah</t>
+  </si>
+  <si>
+    <t>ewenyi_blessing</t>
+  </si>
+  <si>
+    <t>Ewenyi Blessing</t>
+  </si>
+  <si>
+    <t>ibemesi_deborah</t>
+  </si>
+  <si>
+    <t>Ibemesi Deborah</t>
+  </si>
+  <si>
+    <t>ifenyinwa_akamike</t>
+  </si>
+  <si>
+    <t>Ifenyinwa Akamike</t>
+  </si>
+  <si>
+    <t>ifenyinwa_okafor</t>
+  </si>
+  <si>
+    <t>Ifenyinwa Okafor</t>
+  </si>
+  <si>
+    <t>iloke_chijioke</t>
+  </si>
+  <si>
+    <t>Iloke Chijioke</t>
+  </si>
+  <si>
+    <t>kingsley_okeke</t>
+  </si>
+  <si>
+    <t>Kingsley Okeke</t>
+  </si>
+  <si>
+    <t>nancy_igboke</t>
+  </si>
+  <si>
+    <t>Nancy Igboke</t>
+  </si>
+  <si>
+    <t>oke_clement_osigbodi</t>
+  </si>
+  <si>
+    <t>Oke Clement Osigbodi</t>
+  </si>
+  <si>
+    <t>okocha_yusuf</t>
+  </si>
+  <si>
+    <t>Okocha Yusuf</t>
+  </si>
+  <si>
+    <t>osagbaekhoe_austin</t>
+  </si>
+  <si>
+    <t>Osagbaekhoe Austin</t>
+  </si>
+  <si>
+    <t>patricia_otuh</t>
+  </si>
+  <si>
+    <t>Patricia Otuh</t>
+  </si>
+  <si>
+    <t>roseline_adeleye</t>
+  </si>
+  <si>
+    <t>Roseline Adeleye</t>
+  </si>
+  <si>
+    <t>umeokonkwo_chukwuma</t>
+  </si>
+  <si>
+    <t>Umeokonkwo Chukwuma</t>
+  </si>
+  <si>
+    <t>una_alfred</t>
+  </si>
+  <si>
+    <t>Una Alfred</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other (enter name)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test (Not real data)</t>
+  </si>
+  <si>
+    <t>married_single_wife</t>
+  </si>
+  <si>
+    <t>Married (single wife)</t>
+  </si>
+  <si>
+    <t>married_multiple_wives</t>
+  </si>
+  <si>
+    <t>Married (multiple wives)</t>
+  </si>
+  <si>
+    <t>unmarried</t>
+  </si>
+  <si>
+    <t>Unmarried</t>
+  </si>
+  <si>
+    <t>dont_know</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>survivor</t>
+  </si>
+  <si>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>primary_contact</t>
+  </si>
+  <si>
+    <t>Primary Contact</t>
+  </si>
+  <si>
+    <t>secondary_contact</t>
+  </si>
+  <si>
+    <t>Secondary Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naïve </t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>5. What is your surname?</t>
+  </si>
+  <si>
+    <t>6. Age at last birthday (in years)</t>
+  </si>
+  <si>
+    <t>7. Gender</t>
+  </si>
+  <si>
+    <t>8. Marital status</t>
+  </si>
+  <si>
+    <t>9. Have you ever been diagnosed with Lassa fever at a hospital?</t>
+  </si>
+  <si>
+    <t>10. What cohort does this person belong to?</t>
+  </si>
+  <si>
+    <t>1. Phone number</t>
+  </si>
+  <si>
+    <t>12. Registration date</t>
+  </si>
+  <si>
+    <t>13. Additional notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -414,7 +504,7 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -427,13 +517,26 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C4043"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -462,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -470,9 +573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -484,6 +584,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,39 +968,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AC54D0-D9D8-3642-A356-84A9C59BF75D}">
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="79.28515625" customWidth="1"/>
-    <col min="9" max="9" width="57.140625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="46" customWidth="1"/>
-    <col min="24" max="1024" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
@@ -975,432 +1070,366 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AF2" s="4"/>
-    </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>22</v>
+      <c r="E3" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F7" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>142</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>143</v>
+      </c>
+      <c r="S17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" s="6" t="s">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>145</v>
+      </c>
+      <c r="U24" s="12"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="U27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+      <c r="U29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>44</v>
+      </c>
+      <c r="W34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>48</v>
       </c>
-      <c r="W21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" t="s">
-        <v>52</v>
-      </c>
-      <c r="U22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1412,7 +1441,7 @@
       <selection activeCell="B10" activeCellId="1" sqref="A32:XFD32 B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -1420,46 +1449,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>62</v>
+      <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>65</v>
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>65</v>
+      <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>69</v>
+      <c r="A5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1480,9 +1509,9 @@
       <selection activeCell="G72" activeCellId="1" sqref="A32:XFD32 G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1494,23 +1523,23 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1525,202 +1554,433 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C35" activeCellId="1" sqref="A32:XFD32 C35"/>
+      <selection activeCell="B38" sqref="B38:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/app/forms/person/person.xlsx
+++ b/app/forms/person/person.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Maclean\Documents\Projects\work\sentinel\odk-x-tools\app\forms\person\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006A7580-D067-4C85-96F7-1D754B8ADACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6122AC0C-2E91-406A-B64F-9D3E80C6B4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="176">
   <si>
     <t>clause</t>
   </si>
@@ -207,9 +207,6 @@
     <t>survey</t>
   </si>
   <si>
-    <t>New Person</t>
-  </si>
-  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
@@ -487,13 +484,91 @@
   </si>
   <si>
     <t>13. Additional notes</t>
+  </si>
+  <si>
+    <t>New Person Registration</t>
+  </si>
+  <si>
+    <t>If you are unsure, please ask someone else who might know</t>
+  </si>
+  <si>
+    <t>pregistration_date</t>
+  </si>
+  <si>
+    <t>209. Thank you for your time</t>
+  </si>
+  <si>
+    <t>participant_questions</t>
+  </si>
+  <si>
+    <t>210. Please, do you have any question for me?</t>
+  </si>
+  <si>
+    <t>extra_question1</t>
+  </si>
+  <si>
+    <t>extra_question2</t>
+  </si>
+  <si>
+    <t>extra_question3</t>
+  </si>
+  <si>
+    <t>extra_question4</t>
+  </si>
+  <si>
+    <t>extra_question5</t>
+  </si>
+  <si>
+    <t>extra_question6</t>
+  </si>
+  <si>
+    <t>extra_question7</t>
+  </si>
+  <si>
+    <t>extra_question8</t>
+  </si>
+  <si>
+    <t>extra_question9</t>
+  </si>
+  <si>
+    <t>extra_question10</t>
+  </si>
+  <si>
+    <t>extra_question11</t>
+  </si>
+  <si>
+    <t>extra_question12</t>
+  </si>
+  <si>
+    <t>extra_question13</t>
+  </si>
+  <si>
+    <t>extra_question14</t>
+  </si>
+  <si>
+    <t>extra_question15</t>
+  </si>
+  <si>
+    <t>extra_question16</t>
+  </si>
+  <si>
+    <t>extra_question17</t>
+  </si>
+  <si>
+    <t>extra_question18</t>
+  </si>
+  <si>
+    <t>extra_question19</t>
+  </si>
+  <si>
+    <t>extra_question20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -538,8 +613,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +631,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF55308D"/>
         <bgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -565,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -587,6 +674,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,174 +1058,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AC54D0-D9D8-3642-A356-84A9C59BF75D}">
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E3" s="8" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3">
+      <c r="T3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D5" s="8"/>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E5" s="8"/>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>73</v>
       </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="T5" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7">
+        <v>79</v>
+      </c>
+      <c r="T7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1154,28 +1258,27 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1187,244 +1290,448 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="5" t="s">
+      <c r="T10" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
-      <c r="U14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="R17" t="s">
+        <v>37</v>
       </c>
       <c r="S17" t="s">
-        <v>37</v>
-      </c>
-      <c r="T17" t="s">
         <v>38</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="T17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G19" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
       <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
         <v>40</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
         <v>144</v>
       </c>
-      <c r="U22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s">
-        <v>145</v>
-      </c>
-      <c r="U24" s="12"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="E27" s="10" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="U27" t="s">
+        <v>145</v>
+      </c>
+      <c r="T27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s">
-        <v>147</v>
-      </c>
-      <c r="U29" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" t="s">
+        <v>151</v>
+      </c>
+      <c r="T29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
       <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="V34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="T35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
         <v>27</v>
       </c>
-      <c r="G32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" t="s">
-        <v>44</v>
-      </c>
-      <c r="W34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s">
         <v>149</v>
       </c>
-      <c r="L35" t="s">
-        <v>47</v>
-      </c>
-      <c r="U35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1437,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="A32:XFD32 B10"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1480,7 +1787,7 @@
         <v>55</v>
       </c>
       <c r="B4" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1488,7 +1795,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1523,23 +1830,23 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1567,255 +1874,255 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
         <v>121</v>
-      </c>
-      <c r="C23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
         <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1823,10 +2130,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1834,10 +2141,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,10 +2152,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1856,131 +2163,131 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
         <v>125</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
         <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
         <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
         <v>131</v>
-      </c>
-      <c r="C38" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
         <v>133</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
         <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
         <v>137</v>
-      </c>
-      <c r="C42" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
         <v>139</v>
-      </c>
-      <c r="C43" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
